--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/140.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/140.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1782364909378197</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.606572870627268</v>
+        <v>-1.606085711709226</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0418160648458745</v>
+        <v>-0.04218753335850146</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1508829977990418</v>
+        <v>-0.1498236829304064</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1898412262072864</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.589601009451844</v>
+        <v>-1.588825805034603</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07127855475838077</v>
+        <v>-0.07188770015832413</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1255318458313729</v>
+        <v>-0.1242820746490601</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2121957863046703</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.638006819489204</v>
+        <v>-1.63728827976033</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1188942071968479</v>
+        <v>-0.1195789055146137</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1203989694768113</v>
+        <v>-0.11930817422575</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.243715835032846</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.731745954239145</v>
+        <v>-1.731087227236881</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1464804663167637</v>
+        <v>-0.146963690187003</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1316957047103864</v>
+        <v>-0.1304758398913783</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2768971853531643</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760280559879644</v>
+        <v>-1.760177461627199</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1089086298913163</v>
+        <v>-0.1090251073062926</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1213906015232308</v>
+        <v>-0.1202856401000777</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.298724333177295</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.618656615421494</v>
+        <v>-1.619139839291733</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04438486405183722</v>
+        <v>-0.04450606352417737</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1217778102270707</v>
+        <v>-0.1207971963145004</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2996954965557996</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332430682327691</v>
+        <v>-1.332334667161292</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006238510647115051</v>
+        <v>-0.007044408437221003</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1180851613684993</v>
+        <v>-0.1167472451153937</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2755757988553526</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9145026343068574</v>
+        <v>-0.9135582228340771</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001190631325103745</v>
+        <v>-0.003206949819489926</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07799961640633471</v>
+        <v>-0.07663179378992441</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2249160339013336</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3928522352592326</v>
+        <v>-0.3906234241834708</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04537807011737795</v>
+        <v>-0.04793585118949157</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03032887329862208</v>
+        <v>-0.02904919575300462</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1434333654942035</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1677598590979482</v>
+        <v>0.1708543806904253</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09971163616555639</v>
+        <v>-0.1034908560757993</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05171215134181237</v>
+        <v>0.05303590142282625</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03141355880010937</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8419421551143375</v>
+        <v>0.8464107953997101</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2244668177007276</v>
+        <v>-0.2293399809002745</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1309230896021482</v>
+        <v>0.132456184226295</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1062058984133397</v>
       </c>
       <c r="E13" t="n">
-        <v>1.531422342970648</v>
+        <v>1.536762989849221</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4255461864277691</v>
+        <v>-0.4312630238763333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2494656176655456</v>
+        <v>0.2510789872648788</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2592278157955101</v>
       </c>
       <c r="E14" t="n">
-        <v>2.251134716089781</v>
+        <v>2.257440236689712</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6547202224509067</v>
+        <v>-0.6607833441061569</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3689793155267855</v>
+        <v>0.3709562835431392</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4163633628420843</v>
       </c>
       <c r="E15" t="n">
-        <v>2.979716686957444</v>
+        <v>2.987005969508187</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8992952485664109</v>
+        <v>-0.9061870912890259</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4806370839536137</v>
+        <v>0.4827856200541891</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5617715227312357</v>
       </c>
       <c r="E16" t="n">
-        <v>3.600150952038778</v>
+        <v>3.6075346757368</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.176654731949926</v>
+        <v>-1.185237858218379</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6229205424235894</v>
+        <v>0.625881272390756</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.691983528105275</v>
       </c>
       <c r="E17" t="n">
-        <v>4.191511509930568</v>
+        <v>4.199674373093633</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.425974638706591</v>
+        <v>-1.435909060390681</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7717125699601434</v>
+        <v>0.7748842184895642</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8147958263357489</v>
       </c>
       <c r="E18" t="n">
-        <v>4.720701460569223</v>
+        <v>4.728728958087856</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.665298737033436</v>
+        <v>-1.675728187731175</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9066217488468253</v>
+        <v>0.9102105124433909</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9380556595099525</v>
       </c>
       <c r="E19" t="n">
-        <v>5.149854625953613</v>
+        <v>5.158143410646383</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.950185966864572</v>
+        <v>-1.961666075325779</v>
       </c>
       <c r="G19" t="n">
-        <v>1.050757827822572</v>
+        <v>1.054735374142099</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.057375314771631</v>
       </c>
       <c r="E20" t="n">
-        <v>5.48729914125454</v>
+        <v>5.495575333794338</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.20224387988274</v>
+        <v>-2.214160778650108</v>
       </c>
       <c r="G20" t="n">
-        <v>1.201455992515021</v>
+        <v>1.20542409471982</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.16227686638242</v>
       </c>
       <c r="E21" t="n">
-        <v>5.77190068661516</v>
+        <v>5.780244561977175</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.422793865140271</v>
+        <v>-2.435126304955662</v>
       </c>
       <c r="G21" t="n">
-        <v>1.33909609457716</v>
+        <v>1.342933553194891</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.24455207420362</v>
       </c>
       <c r="E22" t="n">
-        <v>5.979413071490957</v>
+        <v>5.987346127862312</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.628136464657356</v>
+        <v>-2.640600335069375</v>
       </c>
       <c r="G22" t="n">
-        <v>1.453635892015089</v>
+        <v>1.457761396132019</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.302966937631769</v>
       </c>
       <c r="E23" t="n">
-        <v>6.116768276092141</v>
+        <v>6.125348254322351</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.750019061296153</v>
+        <v>-2.762060307574103</v>
       </c>
       <c r="G23" t="n">
-        <v>1.553052513735562</v>
+        <v>1.557048948284545</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.336782170068028</v>
       </c>
       <c r="E24" t="n">
-        <v>6.219888564805034</v>
+        <v>6.228847881643477</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.825834053302283</v>
+        <v>-2.837144954707949</v>
       </c>
       <c r="G24" t="n">
-        <v>1.600858622487707</v>
+        <v>1.604850334979325</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.345756749886448</v>
       </c>
       <c r="E25" t="n">
-        <v>6.237594705900545</v>
+        <v>6.246665778096601</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.903716519424241</v>
+        <v>-2.915091955613881</v>
       </c>
       <c r="G25" t="n">
-        <v>1.653424565062664</v>
+        <v>1.656840186555887</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.330141891416732</v>
       </c>
       <c r="E26" t="n">
-        <v>6.227020445443647</v>
+        <v>6.235923097593724</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.966079157010174</v>
+        <v>-2.977036691123109</v>
       </c>
       <c r="G26" t="n">
-        <v>1.672018452942589</v>
+        <v>1.67541990826372</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.291797279381034</v>
       </c>
       <c r="E27" t="n">
-        <v>6.131409801958479</v>
+        <v>6.140274677649645</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981690278655234</v>
+        <v>-2.992122877391215</v>
       </c>
       <c r="G27" t="n">
-        <v>1.678685997940419</v>
+        <v>1.682046528764396</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.234471003296234</v>
       </c>
       <c r="E28" t="n">
-        <v>5.969430642223668</v>
+        <v>5.977568321080793</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.992183477127385</v>
+        <v>-3.002389417109899</v>
       </c>
       <c r="G28" t="n">
-        <v>1.665303687371121</v>
+        <v>1.668391912887113</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.163506212752478</v>
       </c>
       <c r="E29" t="n">
-        <v>5.800384136634217</v>
+        <v>5.808087386213862</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.950930796986776</v>
+        <v>-2.960659809175536</v>
       </c>
       <c r="G29" t="n">
-        <v>1.628427567397288</v>
+        <v>1.631495330664703</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.083162190657401</v>
       </c>
       <c r="E30" t="n">
-        <v>5.60934228784371</v>
+        <v>5.61644583613814</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.924150435656966</v>
+        <v>-2.933282894598753</v>
       </c>
       <c r="G30" t="n">
-        <v>1.559749965096697</v>
+        <v>1.56248875836776</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9987625715662281</v>
       </c>
       <c r="E31" t="n">
-        <v>5.371471796175386</v>
+        <v>5.37810786079079</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.82670291185724</v>
+        <v>-2.834805962293697</v>
       </c>
       <c r="G31" t="n">
-        <v>1.485180809225076</v>
+        <v>1.487963675031536</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9144088968431715</v>
       </c>
       <c r="E32" t="n">
-        <v>5.139828124150927</v>
+        <v>5.146446874555997</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.76476683345318</v>
+        <v>-2.772958815969989</v>
       </c>
       <c r="G32" t="n">
-        <v>1.412259651373458</v>
+        <v>1.414867801057454</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8353014798377398</v>
       </c>
       <c r="E33" t="n">
-        <v>4.846103563963249</v>
+        <v>4.852498803653093</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.642725260883131</v>
+        <v>-2.650357679602318</v>
       </c>
       <c r="G33" t="n">
-        <v>1.33914488916992</v>
+        <v>1.34162554330509</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7637134468718211</v>
       </c>
       <c r="E34" t="n">
-        <v>4.588571999450759</v>
+        <v>4.594186525656438</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.56682448483489</v>
+        <v>-2.574249133030066</v>
       </c>
       <c r="G34" t="n">
-        <v>1.238829502531185</v>
+        <v>1.241155902792467</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7006853697432435</v>
       </c>
       <c r="E35" t="n">
-        <v>4.277556839215591</v>
+        <v>4.282294636770707</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.494841442379567</v>
+        <v>-2.501886751966509</v>
       </c>
       <c r="G35" t="n">
-        <v>1.147358529335038</v>
+        <v>1.149637709022681</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6436535816459014</v>
       </c>
       <c r="E36" t="n">
-        <v>3.939618081910576</v>
+        <v>3.943849045308633</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.399599119368784</v>
+        <v>-2.406451611613367</v>
       </c>
       <c r="G36" t="n">
-        <v>1.069688555794455</v>
+        <v>1.071383774388096</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5899274815781472</v>
       </c>
       <c r="E37" t="n">
-        <v>3.657511356857218</v>
+        <v>3.661300020882189</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.331460618617238</v>
+        <v>-2.338234409905755</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9825902077172818</v>
+        <v>0.9843987556876562</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5358251268731685</v>
       </c>
       <c r="E38" t="n">
-        <v>3.361235311673911</v>
+        <v>3.363939476524305</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.26419097642065</v>
+        <v>-2.270697184458546</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8942216262092185</v>
+        <v>0.8957437026995163</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4790222739424993</v>
       </c>
       <c r="E39" t="n">
-        <v>3.044950335420629</v>
+        <v>3.047210626878817</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.188084003867519</v>
+        <v>-2.194247862746533</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8067659757915097</v>
+        <v>0.8080787077386745</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4182721117970754</v>
       </c>
       <c r="E40" t="n">
-        <v>2.763995792364063</v>
+        <v>2.766479594537476</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.113767478064868</v>
+        <v>-2.120044666320615</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7403943115036236</v>
+        <v>0.7415968621122974</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3541666669309164</v>
       </c>
       <c r="E41" t="n">
-        <v>2.468045569138865</v>
+        <v>2.470327896864751</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.055609045551928</v>
+        <v>-2.06137152955501</v>
       </c>
       <c r="G41" t="n">
-        <v>0.683180290463465</v>
+        <v>0.6841199798788814</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2882915161067915</v>
       </c>
       <c r="E42" t="n">
-        <v>2.194166242032545</v>
+        <v>2.195789055746606</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.971704382271874</v>
+        <v>-1.97691438556338</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6123919285212091</v>
+        <v>0.6130939410493091</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2226994434617487</v>
       </c>
       <c r="E43" t="n">
-        <v>1.942290128222888</v>
+        <v>1.943598138112689</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.908028225729215</v>
+        <v>-1.913490072080129</v>
       </c>
       <c r="G43" t="n">
-        <v>0.541262004429631</v>
+        <v>0.5421528992522872</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1602006564004027</v>
       </c>
       <c r="E44" t="n">
-        <v>1.739550169322874</v>
+        <v>1.741076967870536</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.857095327992607</v>
+        <v>-1.862449354033711</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4744543368451446</v>
+        <v>0.4754554130062918</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1026004166921914</v>
       </c>
       <c r="E45" t="n">
-        <v>1.529670459688641</v>
+        <v>1.530482653555232</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.772313936061988</v>
+        <v>-1.777575094974936</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4240495225237327</v>
+        <v>0.4248664384476877</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.05116187962265876</v>
       </c>
       <c r="E46" t="n">
-        <v>1.332732335269741</v>
+        <v>1.33374757760298</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.71361167994264</v>
+        <v>-1.718701270771366</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3734873062901907</v>
+        <v>0.3740571012121015</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.006282617477851577</v>
       </c>
       <c r="E47" t="n">
-        <v>1.179307969459199</v>
+        <v>1.180072942752151</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.682664102989186</v>
+        <v>-1.687674205852286</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3242535621950265</v>
+        <v>0.32514130897944</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.03166137194248538</v>
       </c>
       <c r="E48" t="n">
-        <v>1.003751320784048</v>
+        <v>1.004253432883743</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.619782826102784</v>
+        <v>-1.624873990950632</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2542506357942997</v>
+        <v>0.2548534851177578</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.06335693684973653</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8572557871454719</v>
+        <v>0.8578019717805632</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.569441759555785</v>
+        <v>-1.574546303566163</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2197056381391135</v>
+        <v>0.2203336717685125</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.08930033435727622</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7575054733712834</v>
+        <v>0.7581398030771676</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.517458204055709</v>
+        <v>-1.522819313182859</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1774510948277965</v>
+        <v>0.1781893097956865</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1115148066251827</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6428507725374987</v>
+        <v>0.6432301111457321</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.479943032318628</v>
+        <v>-1.485319881636991</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1432571034366604</v>
+        <v>0.1440205027104912</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.131093673340945</v>
       </c>
       <c r="E52" t="n">
-        <v>0.533786987622574</v>
+        <v>0.5346290878524699</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.436739355477167</v>
+        <v>-1.441991070275386</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1051060279745743</v>
+        <v>0.1055184209843551</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1499172268996087</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4634629613211019</v>
+        <v>0.4647804153256306</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.398058622580763</v>
+        <v>-1.40313719527564</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07241522484428031</v>
+        <v>0.07304640651192189</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1681620629448479</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3701220534088498</v>
+        <v>0.3718377342510675</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.344440448223216</v>
+        <v>-1.349941645052162</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04213424498869769</v>
+        <v>0.04266154139433342</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1868789734887228</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2781804484954341</v>
+        <v>0.2803415767489799</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.312854606516075</v>
+        <v>-1.318385709708325</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008785501865700015</v>
+        <v>0.008969662102892195</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2061919089614178</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2129043015159732</v>
+        <v>0.2154337502439034</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.292528510593158</v>
+        <v>-1.298203636535008</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.009540802763603893</v>
+        <v>-0.009060726931607184</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2267693956521025</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1366965917390791</v>
+        <v>0.1393220556334087</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.299655669174408</v>
+        <v>-1.305291444638225</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04539066227034836</v>
+        <v>-0.04491688251483685</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2484051377892948</v>
       </c>
       <c r="E58" t="n">
-        <v>0.072816599720212</v>
+        <v>0.07562307581349112</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.280858732827835</v>
+        <v>-1.286263914490382</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07581330384684805</v>
+        <v>-0.07529387753681882</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2715564621788472</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03431924005143977</v>
+        <v>0.03745311212194944</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.290567282768018</v>
+        <v>-1.296200697203153</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1002389325711921</v>
+        <v>-0.09986589003944386</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2957559182744321</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.02180713377590015</v>
+        <v>-0.01806096826720452</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.295964594334958</v>
+        <v>-1.301251724563407</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1057354073427741</v>
+        <v>-0.1051514462487716</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3201551246606843</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.06129612549109181</v>
+        <v>-0.05735792964959749</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.276697813280677</v>
+        <v>-1.281774024946871</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.136551553699599</v>
+        <v>-0.1360730518867236</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3436049639695636</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1157619091454595</v>
+        <v>-0.1116301089520452</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.300857432773521</v>
+        <v>-1.306056417931177</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1445884953329603</v>
+        <v>-0.1440281445257773</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.366219181181749</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1598674989434261</v>
+        <v>-0.1556538497557041</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.339838803322093</v>
+        <v>-1.345270743309702</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1628549872356548</v>
+        <v>-0.1624662045126935</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3882963397936258</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2175112272036999</v>
+        <v>-0.2124932542449933</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.380306834930734</v>
+        <v>-1.385969368719613</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1795569041317764</v>
+        <v>-0.1788863719861023</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4098872953412552</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2725483797990997</v>
+        <v>-0.267021998664213</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.413080274064896</v>
+        <v>-1.418800259551703</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2046735272503715</v>
+        <v>-0.2040942882137328</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4310793679185327</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3383439530885898</v>
+        <v>-0.3331465419500549</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.456409872436061</v>
+        <v>-1.461821350175093</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2109129390472074</v>
+        <v>-0.2102943495325362</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.451540642083064</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.328126994972227</v>
+        <v>-0.322263773745382</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.503176341558587</v>
+        <v>-1.508482360016491</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2442097395392021</v>
+        <v>-0.2435250412214363</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4707202253532967</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3527257657999142</v>
+        <v>-0.3475456688717136</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.532345276904971</v>
+        <v>-1.537987348445273</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2543495707186212</v>
+        <v>-0.2537089449362518</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4881436543767956</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3808220071151314</v>
+        <v>-0.3755883935368066</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.590451766786907</v>
+        <v>-1.596447205619941</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2594761509966975</v>
+        <v>-0.2590369996618546</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5037109784099003</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.4069003559168412</v>
+        <v>-0.4017784976961288</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.609107041412563</v>
+        <v>-1.614967901610726</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2698300487766134</v>
+        <v>-0.269383027346164</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.517312342224771</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4123102596367517</v>
+        <v>-0.4074811689726012</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.645582573520024</v>
+        <v>-1.651903834311168</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2880713563733671</v>
+        <v>-0.2877124800137105</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5286262402559091</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4097934030617919</v>
+        <v>-0.4051374545009844</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.67780431895217</v>
+        <v>-1.684209789766304</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.285343581236153</v>
+        <v>-0.2850901641576236</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5370742538852584</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3691931538469619</v>
+        <v>-0.3648630272442638</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.703661518067337</v>
+        <v>-1.709842691156685</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.286599648494951</v>
+        <v>-0.2866090926096788</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5418245677071252</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3279113543526088</v>
+        <v>-0.323515118946816</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.736152420769226</v>
+        <v>-1.742260401969433</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.291625491549264</v>
+        <v>-0.2915294763828647</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5422566642038282</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2626651137364527</v>
+        <v>-0.2587646943538696</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.755332630771836</v>
+        <v>-1.761561024434823</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2942903059216261</v>
+        <v>-0.2944477078337562</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5376854921842177</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1546999941681959</v>
+        <v>-0.1508814237799204</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.763619841445484</v>
+        <v>-1.76982305080253</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2765762947305082</v>
+        <v>-0.2769273009945583</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.527825554489971</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.06697046442338078</v>
+        <v>-0.06341475522836254</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.749939254252699</v>
+        <v>-1.756134593514138</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2624242888108937</v>
+        <v>-0.2629940837328045</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5123640961406171</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06974254037631175</v>
+        <v>0.072848080102638</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.753927031696514</v>
+        <v>-1.760104269738059</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2335190016673279</v>
+        <v>-0.2343721200310728</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4908744969615195</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1976426121158417</v>
+        <v>0.2006474146184047</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.782900788671857</v>
+        <v>-1.789062286522188</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2173837316548745</v>
+        <v>-0.2181172245654006</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4631320541896097</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3437824174330041</v>
+        <v>0.3468611988342682</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.742133693430169</v>
+        <v>-1.74775058066453</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1905561497514256</v>
+        <v>-0.1914580627079309</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4293628942612673</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4751122768378483</v>
+        <v>0.4778101456117577</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.723058942708686</v>
+        <v>-1.727958864233295</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1623733373845368</v>
+        <v>-0.1631745131172788</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.390527521320285</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6514779713413478</v>
+        <v>0.6547487830754106</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.685602796688655</v>
+        <v>-1.689986439941477</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1368033967590071</v>
+        <v>-0.1375054092871072</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3474002451985967</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8264113084444636</v>
+        <v>0.8292524129584113</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.618850219773414</v>
+        <v>-1.622603468368155</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1162545771304266</v>
+        <v>-0.1173988890316122</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3009982765122378</v>
       </c>
       <c r="E84" t="n">
-        <v>1.00652474247578</v>
+        <v>1.009746759617083</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.542189979499146</v>
+        <v>-1.545223114345892</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.0997289503758907</v>
+        <v>-0.1010589965333898</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2521438224120552</v>
       </c>
       <c r="E85" t="n">
-        <v>1.151643009383218</v>
+        <v>1.155430099389068</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.438005653860253</v>
+        <v>-1.440760187322529</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07826719965695582</v>
+        <v>-0.07997186236532447</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2025197401037939</v>
       </c>
       <c r="E86" t="n">
-        <v>1.314764907000094</v>
+        <v>1.318150622130011</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.323369054246363</v>
+        <v>-1.3255183773565</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04814047367526066</v>
+        <v>-0.04984513638362931</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1540707433572874</v>
       </c>
       <c r="E87" t="n">
-        <v>1.453555617039903</v>
+        <v>1.457382057523785</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.194491516632506</v>
+        <v>-1.19634807218608</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0237510473907065</v>
+        <v>-0.0255690394758088</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.109457433535025</v>
       </c>
       <c r="E88" t="n">
-        <v>1.54699883619504</v>
+        <v>1.550094931806638</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.050903983320532</v>
+        <v>-1.052186021894832</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01008541337957393</v>
+        <v>-0.01178535403057867</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0712824565739229</v>
       </c>
       <c r="E89" t="n">
-        <v>1.65102261188356</v>
+        <v>1.654400456917871</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9086590883190286</v>
+        <v>-0.9090596761853996</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01465187113078768</v>
+        <v>0.01277721435731856</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04307187562539598</v>
       </c>
       <c r="E90" t="n">
-        <v>1.695389488855662</v>
+        <v>1.698672892742695</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7214082645821742</v>
+        <v>-0.7207991191822309</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01709002674968244</v>
+        <v>0.01495093476383481</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02870004875490335</v>
       </c>
       <c r="E91" t="n">
-        <v>1.716298758863021</v>
+        <v>1.718754228692249</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.536982018158494</v>
+        <v>-0.5362485252479678</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.002327073130682841</v>
+        <v>-0.004170249521725946</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03181306543076336</v>
       </c>
       <c r="E92" t="n">
-        <v>1.689970141021024</v>
+        <v>1.692140713389297</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3746250938345706</v>
+        <v>-0.3734430054744738</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.004922630661707676</v>
+        <v>-0.00699246580621808</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05357128020122677</v>
       </c>
       <c r="E93" t="n">
-        <v>1.648178359331369</v>
+        <v>1.649975889167895</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2227259525525691</v>
+        <v>-0.2213848882612209</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0216812122461961</v>
+        <v>-0.02339531906929255</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09124981251840328</v>
       </c>
       <c r="E94" t="n">
-        <v>1.551384053466983</v>
+        <v>1.552817984886488</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08549352144284728</v>
+        <v>-0.08385968959493717</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02760424619965059</v>
+        <v>-0.02935927751990085</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1376276800075145</v>
       </c>
       <c r="E95" t="n">
-        <v>1.481598341704996</v>
+        <v>1.482929961881617</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0215681111497829</v>
+        <v>0.02307916950623156</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06382557421902202</v>
+        <v>-0.06543422176099131</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1826957281975325</v>
       </c>
       <c r="E96" t="n">
-        <v>1.398287083633672</v>
+        <v>1.399409359267159</v>
       </c>
       <c r="F96" t="n">
-        <v>0.102759165464715</v>
+        <v>0.1044370698480215</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09294807600132735</v>
+        <v>-0.09456144560066054</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2182843795117047</v>
       </c>
       <c r="E97" t="n">
-        <v>1.319452335943327</v>
+        <v>1.320214161198037</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1663337977740497</v>
+        <v>0.1678668923981966</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1118945441644237</v>
+        <v>-0.1136889259627065</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2412072261937077</v>
       </c>
       <c r="E98" t="n">
-        <v>1.223640218010633</v>
+        <v>1.224723143166088</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1985917456459861</v>
+        <v>0.2002995563925973</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1332319473727759</v>
+        <v>-0.1348358728573812</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2529098849660094</v>
       </c>
       <c r="E99" t="n">
-        <v>1.137083332511187</v>
+        <v>1.138189867953461</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2204391310496396</v>
+        <v>0.2218478781632037</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1359235200702</v>
+        <v>-0.1374282823501635</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2594362117774312</v>
       </c>
       <c r="E100" t="n">
-        <v>1.049394727263526</v>
+        <v>1.05035645294664</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2323812141229479</v>
+        <v>0.2338041274086037</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1504265322538645</v>
+        <v>-0.151947034725041</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2657648072057629</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9592978727602741</v>
+        <v>0.9600896043782884</v>
       </c>
       <c r="F101" t="n">
-        <v>0.224581949376903</v>
+        <v>0.2265211409343454</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1636593110066394</v>
+        <v>-0.1653073090266413</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2780610284186217</v>
       </c>
       <c r="E102" t="n">
-        <v>0.899181360460437</v>
+        <v>0.8997243970572857</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2311298689215139</v>
+        <v>0.232973045312557</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1885823297733145</v>
+        <v>-0.1903531012847778</v>
       </c>
     </row>
   </sheetData>
